--- a/Data/EXCData/2017.xlsx
+++ b/Data/EXCData/2017.xlsx
@@ -40,24 +40,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="453">
   <si>
-    <t>Country or region</t>
-  </si>
-  <si>
-    <t>Happiness Score</t>
-  </si>
-  <si>
-    <t>GDP per capita</t>
-  </si>
-  <si>
-    <t>Healthy life expectancy</t>
-  </si>
-  <si>
     <t>Freedom</t>
   </si>
   <si>
-    <t>Perceptions of corruption</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -1397,6 +1382,21 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>scoreH</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>corruption</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1745,7 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,36 +1763,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>452</v>
       </c>
       <c r="G1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>7.5370001792907697</v>
@@ -1810,18 +1810,18 @@
         <v>0.315963834524155</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>7.5219998359680202</v>
@@ -1839,18 +1839,18 @@
         <v>0.40077006816864003</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3.7939999103546098</v>
@@ -1868,18 +1868,18 @@
         <v>6.1157830059528399E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>7.5040001869201696</v>
@@ -1897,18 +1897,18 @@
         <v>0.15352655947208399</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>3.7950000762939502</v>
@@ -1926,18 +1926,18 @@
         <v>6.9720335304737105E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>7.4939999580383301</v>
@@ -1955,18 +1955,18 @@
         <v>0.367007285356522</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>4.6440000534057599</v>
@@ -1984,18 +1984,18 @@
         <v>3.9864215999841697E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>7.46899986267091</v>
@@ -2013,18 +2013,18 @@
         <v>0.38261154294013999</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>7.3769998550415101</v>
@@ -2042,18 +2042,18 @@
         <v>0.28266182541847201</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>6.6479997634887704</v>
@@ -2071,18 +2071,18 @@
         <v>0.32448956370353699</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>7.31599998474121</v>
@@ -2100,18 +2100,18 @@
         <v>0.287371516227722</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>6.59899997711182</v>
@@ -2129,18 +2129,18 @@
         <v>5.9739887714386E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>7.3140001296997097</v>
@@ -2158,18 +2158,18 @@
         <v>0.382816702127457</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>4.3759999275207502</v>
@@ -2187,18 +2187,18 @@
         <v>2.66744215041399E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>7.2839999198913601</v>
@@ -2216,18 +2216,18 @@
         <v>0.30118373036384599</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>7.2129998207092303</v>
@@ -2245,18 +2245,18 @@
         <v>8.5242100059986101E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>7.0789999961853098</v>
@@ -2274,18 +2274,18 @@
         <v>0.100106589496136</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>7.0060000419616699</v>
@@ -2303,18 +2303,18 @@
         <v>0.221060365438461</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>5.2340002059936497</v>
@@ -2332,18 +2332,18 @@
         <v>0.18098750710487399</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>2.9049999713897701</v>
@@ -2361,18 +2361,18 @@
         <v>8.4147945046424893E-2</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>6.9770002365112296</v>
@@ -2390,18 +2390,18 @@
         <v>0.29838815331459001</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>6.8909997940063503</v>
@@ -2419,18 +2419,18 @@
         <v>0.25134313106536899</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>6.9510002136230504</v>
@@ -2448,18 +2448,18 @@
         <v>0.276731938123703</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>3.65700006484985</v>
@@ -2477,18 +2477,18 @@
         <v>6.0929015278816202E-2</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <v>4.03200006484985</v>
@@ -2506,18 +2506,18 @@
         <v>0.120328105986118</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B27">
         <v>6.8629999160766602</v>
@@ -2535,18 +2535,18 @@
         <v>0.31883442401885997</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B28">
         <v>4.6079998016357404</v>
@@ -2564,18 +2564,18 @@
         <v>0.123717859387398</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B29">
         <v>6.7140002250671396</v>
@@ -2593,18 +2593,18 @@
         <v>0.265428066253662</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>4.7140002250671396</v>
@@ -2622,18 +2622,18 @@
         <v>1.1051530949771401E-2</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B31">
         <v>6.65199995040894</v>
@@ -2651,18 +2651,18 @@
         <v>8.2287982106208801E-2</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B32">
         <v>6.0869998931884801</v>
@@ -2680,18 +2680,18 @@
         <v>0.25704216957092302</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>6.6350002288818404</v>
@@ -2709,18 +2709,18 @@
         <v>0.111092761158943</v>
       </c>
       <c r="G33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B34">
         <v>5.1820001602172896</v>
@@ -2738,18 +2738,18 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I34" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B35">
         <v>6.6090002059936497</v>
@@ -2767,18 +2767,18 @@
         <v>3.6872927099466303E-2</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B36">
         <v>5.5689997673034703</v>
@@ -2796,18 +2796,18 @@
         <v>0.156313821673393</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B37">
         <v>5.9559998512268102</v>
@@ -2825,18 +2825,18 @@
         <v>9.6581071615219102E-2</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I37" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>6.5780000686645499</v>
@@ -2854,18 +2854,18 @@
         <v>0.13277411460876501</v>
       </c>
       <c r="G38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B39">
         <v>5.8229999542236301</v>
@@ -2883,18 +2883,18 @@
         <v>6.0477726161479901E-2</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H39" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I39" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B40">
         <v>6.52699995040894</v>
@@ -2912,18 +2912,18 @@
         <v>0.15306606888771099</v>
       </c>
       <c r="G40" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B41">
         <v>6.4539999961853098</v>
@@ -2941,18 +2941,18 @@
         <v>7.72232785820961E-2</v>
       </c>
       <c r="G41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B42">
         <v>6.4520001411438104</v>
@@ -2970,18 +2970,18 @@
         <v>7.0983923971652998E-2</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B43">
         <v>5.0110001564025897</v>
@@ -2999,18 +2999,18 @@
         <v>0.17338038980960799</v>
       </c>
       <c r="G43" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H43" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I43" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B44">
         <v>6.4419999122619602</v>
@@ -3028,18 +3028,18 @@
         <v>0.17250242829322801</v>
       </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H44" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B45">
         <v>3.7660000324249299</v>
@@ -3057,18 +3057,18 @@
         <v>9.8583199083805098E-2</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I45" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B46">
         <v>2.6930000782012899</v>
@@ -3086,18 +3086,18 @@
         <v>5.6565076112747199E-2</v>
       </c>
       <c r="G46" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H46" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B47">
         <v>6.4029998779296902</v>
@@ -3115,18 +3115,18 @@
         <v>7.0914097130298601E-2</v>
       </c>
       <c r="G47" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H47" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I47" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B48">
         <v>6.3569998741149902</v>
@@ -3144,18 +3144,18 @@
         <v>4.6668741852045101E-2</v>
       </c>
       <c r="G48" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H48" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I48" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B49">
         <v>5.2729997634887704</v>
@@ -3173,18 +3173,18 @@
         <v>2.2794274613261199E-2</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I49" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B50">
         <v>4.6950001716613796</v>
@@ -3202,18 +3202,18 @@
         <v>5.1306631416082403E-2</v>
       </c>
       <c r="G50" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I50" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B51">
         <v>6.1050000190734899</v>
@@ -3231,18 +3231,18 @@
         <v>0.21515955030918099</v>
       </c>
       <c r="G51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H51" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I51" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B52">
         <v>6.0840001106262198</v>
@@ -3260,18 +3260,18 @@
         <v>6.5600708127021803E-2</v>
       </c>
       <c r="G52" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I52" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B53">
         <v>6.0710000991821298</v>
@@ -3289,18 +3289,18 @@
         <v>0.130687981843948</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H53" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I53" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B54">
         <v>6.0079998970031703</v>
@@ -3318,18 +3318,18 @@
         <v>0.140134647488594</v>
       </c>
       <c r="G54" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H54" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I54" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B55">
         <v>5.97300004959106</v>
@@ -3347,18 +3347,18 @@
         <v>5.9307806193828597E-2</v>
       </c>
       <c r="G55" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I55" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B56">
         <v>5.9640002250671396</v>
@@ -3376,18 +3376,18 @@
         <v>2.8028091415762901E-2</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H56" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I56" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B57">
         <v>5.6209998130798304</v>
@@ -3405,18 +3405,18 @@
         <v>4.1237976402044303E-2</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H57" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I57" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B58">
         <v>5.9200000762939498</v>
@@ -3434,18 +3434,18 @@
         <v>0.163760736584663</v>
       </c>
       <c r="G58" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H58" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I58" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B59">
         <v>5.90199995040894</v>
@@ -3463,18 +3463,18 @@
         <v>1.18656428530812E-2</v>
       </c>
       <c r="G59" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H59" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I59" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B60">
         <v>5.8720002174377397</v>
@@ -3492,18 +3492,18 @@
         <v>0.14609611034393299</v>
       </c>
       <c r="G60" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H60" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I60" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B61">
         <v>5.8499999046325701</v>
@@ -3521,18 +3521,18 @@
         <v>7.3842726647853907E-2</v>
       </c>
       <c r="G61" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H61" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I61" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B62">
         <v>5.2300000190734899</v>
@@ -3550,18 +3550,18 @@
         <v>0.113945253193378</v>
       </c>
       <c r="G62" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H62" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I62" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B63">
         <v>5.8379998207092303</v>
@@ -3579,18 +3579,18 @@
         <v>1.00912861526012E-2</v>
       </c>
       <c r="G63" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H63" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I63" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B64">
         <v>5.6110000610351598</v>
@@ -3608,18 +3608,18 @@
         <v>0.183248922228813</v>
       </c>
       <c r="G64" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H64" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I64" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B65">
         <v>5.8189997673034703</v>
@@ -3637,18 +3637,18 @@
         <v>0.119282886385918</v>
       </c>
       <c r="G65" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H65" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I65" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B66">
         <v>4.46000003814697</v>
@@ -3666,18 +3666,18 @@
         <v>0.16545571386814101</v>
       </c>
       <c r="G66" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H66" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I66" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B67">
         <v>5.7150001525878897</v>
@@ -3695,18 +3695,18 @@
         <v>4.7049086540937403E-2</v>
       </c>
       <c r="G67" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H67" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I67" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B68">
         <v>5.6290001869201696</v>
@@ -3724,18 +3724,18 @@
         <v>4.2181555181741701E-2</v>
       </c>
       <c r="G68" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H68" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I68" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B69">
         <v>4.4650001525878897</v>
@@ -3753,18 +3753,18 @@
         <v>7.6046787202358204E-2</v>
       </c>
       <c r="G69" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H69" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I69" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B70">
         <v>5.5250000953674299</v>
@@ -3782,18 +3782,18 @@
         <v>9.2610210180282607E-2</v>
       </c>
       <c r="G70" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H70" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I70" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B71">
         <v>4.2859997749328604</v>
@@ -3811,18 +3811,18 @@
         <v>0.25166663527488697</v>
       </c>
       <c r="G71" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H71" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I71" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B72">
         <v>4.1199998855590803</v>
@@ -3840,18 +3840,18 @@
         <v>2.5336369872093201E-2</v>
       </c>
       <c r="G72" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H72" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I72" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B73">
         <v>3.5069999694824201</v>
@@ -3869,18 +3869,18 @@
         <v>0.110937617719173</v>
       </c>
       <c r="G73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H73" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I73" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B74">
         <v>5.4299998283386204</v>
@@ -3898,18 +3898,18 @@
         <v>9.9331893026828794E-2</v>
       </c>
       <c r="G74" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H74" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I74" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B75">
         <v>5.3359999656677202</v>
@@ -3927,18 +3927,18 @@
         <v>0.11980327218771</v>
       </c>
       <c r="G75" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H75" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I75" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B76">
         <v>5.3239998817443803</v>
@@ -3956,18 +3956,18 @@
         <v>3.66369374096394E-2</v>
       </c>
       <c r="G76" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H76" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I76" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B77">
         <v>5.2270002365112296</v>
@@ -3985,18 +3985,18 @@
         <v>4.3289776891469997E-2</v>
       </c>
       <c r="G77" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H77" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I77" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B78">
         <v>5.3109998703002903</v>
@@ -4014,18 +4014,18 @@
         <v>5.5267781019210802E-2</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H78" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I78" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B79">
         <v>5.2930002212524396</v>
@@ -4043,18 +4043,18 @@
         <v>4.3103110045194598E-2</v>
       </c>
       <c r="G79" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H79" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I79" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B80">
         <v>5.2690000534057599</v>
@@ -4072,18 +4072,18 @@
         <v>0.124348066747189</v>
       </c>
       <c r="G80" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H80" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I80" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B81">
         <v>5.2620000839233398</v>
@@ -4101,18 +4101,18 @@
         <v>1.5317135490477101E-2</v>
       </c>
       <c r="G81" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H81" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I81" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B82">
         <v>5.1810002326965297</v>
@@ -4130,18 +4130,18 @@
         <v>7.3345452547073406E-2</v>
       </c>
       <c r="G82" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H82" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I82" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B83">
         <v>5.23699998855591</v>
@@ -4159,18 +4159,18 @@
         <v>8.8174194097518893E-2</v>
       </c>
       <c r="G83" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H83" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I83" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B84">
         <v>5.2350001335144096</v>
@@ -4188,18 +4188,18 @@
         <v>8.7763182818889604E-2</v>
       </c>
       <c r="G84" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I84" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B85">
         <v>3.60299992561341</v>
@@ -4217,18 +4217,18 @@
         <v>9.9872149527072906E-2</v>
       </c>
       <c r="G85" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H85" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I85" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B86">
         <v>5.2249999046325701</v>
@@ -4246,18 +4246,18 @@
         <v>3.7513829767704003E-2</v>
       </c>
       <c r="G86" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H86" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I86" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B87">
         <v>4.3150000572204599</v>
@@ -4275,18 +4275,18 @@
         <v>9.22268852591515E-2</v>
       </c>
       <c r="G87" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H87" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I87" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B88">
         <v>4.4970002174377397</v>
@@ -4304,18 +4304,18 @@
         <v>0.10721575468778601</v>
       </c>
       <c r="G88" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H88" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I88" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B89">
         <v>5.0739998817443803</v>
@@ -4333,18 +4333,18 @@
         <v>2.61215660721064E-2</v>
       </c>
       <c r="G89" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H89" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I89" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B90">
         <v>4.9619998931884801</v>
@@ -4362,18 +4362,18 @@
         <v>7.2975546121597304E-2</v>
       </c>
       <c r="G90" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H90" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I90" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B91">
         <v>4.55299997329712</v>
@@ -4391,18 +4391,18 @@
         <v>6.4641319215297699E-2</v>
       </c>
       <c r="G91" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H91" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I91" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B92">
         <v>4.9549999237060502</v>
@@ -4420,18 +4420,18 @@
         <v>3.2902289181947701E-2</v>
       </c>
       <c r="G92" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H92" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I92" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B93">
         <v>4.1680002212524396</v>
@@ -4449,18 +4449,18 @@
         <v>6.8105950951576205E-2</v>
       </c>
       <c r="G93" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H93" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I93" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B94">
         <v>3.5329999923706099</v>
@@ -4478,18 +4478,18 @@
         <v>3.8948249071836499E-2</v>
       </c>
       <c r="G94" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H94" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I94" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B95">
         <v>4.5739998817443803</v>
@@ -4507,18 +4507,18 @@
         <v>9.3146972358226804E-2</v>
       </c>
       <c r="G95" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H95" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I95" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B96">
         <v>4.4400000572204599</v>
@@ -4536,18 +4536,18 @@
         <v>7.36539661884308E-2</v>
       </c>
       <c r="G96" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H96" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I96" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B97">
         <v>4.5500001907348597</v>
@@ -4565,18 +4565,18 @@
         <v>0.179436385631561</v>
       </c>
       <c r="G97" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H97" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I97" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B98">
         <v>3.8080000877380402</v>
@@ -4594,18 +4594,18 @@
         <v>0.11909464001655599</v>
       </c>
       <c r="G98" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H98" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I98" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B99">
         <v>4.5450000762939498</v>
@@ -4623,18 +4623,18 @@
         <v>0.18881620466709101</v>
       </c>
       <c r="G99" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H99" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I99" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B100">
         <v>3.6440000534057599</v>
@@ -4652,18 +4652,18 @@
         <v>6.7231975495815305E-2</v>
       </c>
       <c r="G100" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H100" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I100" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B101">
         <v>4.2919998168945304</v>
@@ -4681,18 +4681,18 @@
         <v>0.13695700466632801</v>
       </c>
       <c r="G101" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H101" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I101" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B102">
         <v>4.1900000572204599</v>
@@ -4710,18 +4710,18 @@
         <v>0.10497024655342101</v>
       </c>
       <c r="G102" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H102" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I102" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B103">
         <v>4.0279998779296902</v>
@@ -4739,18 +4739,18 @@
         <v>0.13857294619083399</v>
       </c>
       <c r="G103" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H103" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I103" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B104">
         <v>3.9700000286102299</v>
@@ -4768,18 +4768,18 @@
         <v>7.2711654007434803E-2</v>
       </c>
       <c r="G104" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H104" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I104" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B105">
         <v>5.1950001716613796</v>
@@ -4797,18 +4797,18 @@
         <v>1.5869451686739901E-2</v>
       </c>
       <c r="G105" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H105" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I105" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B106">
         <v>5.4930000305175799</v>
@@ -4826,18 +4826,18 @@
         <v>9.1065913438796997E-2</v>
       </c>
       <c r="G106" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H106" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I106" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B107">
         <v>6.3751111111111003</v>
@@ -4855,18 +4855,18 @@
         <v>0.439299255609512</v>
       </c>
       <c r="G107" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H107" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I107" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B108">
         <v>5.8249998092651403</v>
@@ -4884,18 +4884,18 @@
         <v>4.3879006989300303E-3</v>
       </c>
       <c r="G108" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H108" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I108" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B109">
         <v>3.4709999561309801</v>
@@ -4913,18 +4913,18 @@
         <v>0.45522001385688798</v>
       </c>
       <c r="G109" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H109" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I109" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B110">
         <v>6.34399986267091</v>
@@ -4942,18 +4942,18 @@
         <v>0.27343225479125999</v>
       </c>
       <c r="G110" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H110" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I110" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B111">
         <v>4.1389999389648402</v>
@@ -4971,18 +4971,18 @@
         <v>8.9847519993782002E-2</v>
       </c>
       <c r="G111" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H111" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I111" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B112">
         <v>4.5349998474121103</v>
@@ -5000,18 +5000,18 @@
         <v>0.115460447967052</v>
       </c>
       <c r="G112" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H112" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I112" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B113">
         <v>6.57200002670288</v>
@@ -5029,18 +5029,18 @@
         <v>0.46430778503418002</v>
       </c>
       <c r="G113" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H113" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I113" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B114">
         <v>4.7090001106262198</v>
@@ -5058,18 +5058,18 @@
         <v>7.1095176041126307E-2</v>
       </c>
       <c r="G114" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H114" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I114" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B115">
         <v>6.0029997825622603</v>
@@ -5087,18 +5087,18 @@
         <v>8.9980959892272894E-2</v>
       </c>
       <c r="G115" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H115" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I115" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B116">
         <v>5.15100002288818</v>
@@ -5116,18 +5116,18 @@
         <v>0.28241032361984297</v>
       </c>
       <c r="G116" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H116" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I116" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B117">
         <v>5.3949999809265101</v>
@@ -5145,18 +5145,18 @@
         <v>4.0903780609369299E-2</v>
       </c>
       <c r="G117" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H117" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I117" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B118">
         <v>5.7579998970031703</v>
@@ -5174,18 +5174,18 @@
         <v>4.5128978788852699E-2</v>
       </c>
       <c r="G118" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H118" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I118" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B119">
         <v>7.2839999198913601</v>
@@ -5203,18 +5203,18 @@
         <v>0.38439872860908503</v>
       </c>
       <c r="G119" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H119" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I119" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B120">
         <v>3.9360001087188698</v>
@@ -5232,18 +5232,18 @@
         <v>5.3581882268190398E-2</v>
       </c>
       <c r="G120" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H120" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I120" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B121">
         <v>3.4949998855590798</v>
@@ -5261,18 +5261,18 @@
         <v>9.5665015280246707E-2</v>
       </c>
       <c r="G121" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H121" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I121" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B122">
         <v>6.4239997863769496</v>
@@ -5290,18 +5290,18 @@
         <v>3.16127352416515E-2</v>
       </c>
       <c r="G122" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H122" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I122" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B123">
         <v>5.0409998893737802</v>
@@ -5319,18 +5319,18 @@
         <v>0.14637714624404899</v>
       </c>
       <c r="G123" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H123" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I123" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B124">
         <v>5.82200002670288</v>
@@ -5348,18 +5348,18 @@
         <v>0.259270340204239</v>
       </c>
       <c r="G124" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H124" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I124" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B125">
         <v>6.1680002212524396</v>
@@ -5377,18 +5377,18 @@
         <v>8.9648161083459906E-3</v>
       </c>
       <c r="G125" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H125" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I125" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B126">
         <v>4.8049998283386204</v>
@@ -5406,18 +5406,18 @@
         <v>8.6723148822784396E-2</v>
       </c>
       <c r="G126" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H126" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I126" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B127">
         <v>5.5111111111</v>
@@ -5435,18 +5435,18 @@
         <v>9.9671579897403703E-2</v>
       </c>
       <c r="G127" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H127" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I127" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B128">
         <v>3.34899997711182</v>
@@ -5464,18 +5464,18 @@
         <v>6.6035106778144795E-2</v>
       </c>
       <c r="G128" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H128" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I128" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B129">
         <v>4.0809998512268102</v>
@@ -5493,18 +5493,18 @@
         <v>5.7069718837738002E-2</v>
       </c>
       <c r="G129" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H129" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I129" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B130">
         <v>4.0960001945495597</v>
@@ -5522,18 +5522,18 @@
         <v>2.3029470816254598E-2</v>
       </c>
       <c r="G130" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H130" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I130" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B131">
         <v>6.45399999618511</v>
@@ -5551,18 +5551,18 @@
         <v>0.178061872720718</v>
       </c>
       <c r="G131" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H131" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I131" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B132">
         <v>6.9930000305175799</v>
@@ -5580,18 +5580,18 @@
         <v>0.135638788342476</v>
       </c>
       <c r="G132" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H132" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I132" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B133">
         <v>5.9710001945495597</v>
@@ -5609,18 +5609,18 @@
         <v>0.24652822315692899</v>
       </c>
       <c r="G133" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H133" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I133" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B134">
         <v>5.0739998817443803</v>
@@ -5638,18 +5638,18 @@
         <v>8.7633237242698697E-2</v>
       </c>
       <c r="G134" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H134" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I134" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B135">
         <v>4.8289999961853098</v>
@@ -5667,18 +5667,18 @@
         <v>7.2509497404098497E-2</v>
       </c>
       <c r="G135" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H135" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I135" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B136">
         <v>4.5139999389648402</v>
@@ -5696,18 +5696,18 @@
         <v>7.8213550150394398E-2</v>
       </c>
       <c r="G136" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H136" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I136" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B137">
         <v>3.8751111111111101</v>
@@ -5725,18 +5725,18 @@
         <v>9.5375381410121904E-2</v>
       </c>
       <c r="G137" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H137" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="I137" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B138">
         <v>6.09800004959106</v>
@@ -5754,18 +5754,18 @@
         <v>2.4210851639509201E-2</v>
       </c>
       <c r="G138" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H138" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="I138" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B139">
         <v>5.9629998207092303</v>
@@ -5783,18 +5783,18 @@
         <v>3.2962881028652198E-2</v>
       </c>
       <c r="G139" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H139" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="I139" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B140">
         <v>5.2511111111111104</v>
@@ -5812,18 +5812,18 @@
         <v>6.4491122961044298E-2</v>
       </c>
       <c r="G140" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H140" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I140" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B141">
         <v>4.7350001335144096</v>
@@ -5841,18 +5841,18 @@
         <v>0.114381365478039</v>
       </c>
       <c r="G141" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H141" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I141" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B142">
         <v>4.6919999122619602</v>
@@ -5870,18 +5870,18 @@
         <v>4.8761073499917998E-2</v>
       </c>
       <c r="G142" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H142" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="I142" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B143">
         <v>4.2909998893737802</v>
@@ -5899,18 +5899,18 @@
         <v>7.9618133604526506E-2</v>
       </c>
       <c r="G143" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H143" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I143" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B144">
         <v>4.2800002098083496</v>
@@ -5928,18 +5928,18 @@
         <v>6.02413564920425E-2</v>
       </c>
       <c r="G144" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H144" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I144" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B145">
         <v>3.59299993515015</v>
@@ -5957,18 +5957,18 @@
         <v>5.67674227058887E-2</v>
       </c>
       <c r="G145" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H145" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="I145" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B146">
         <v>3.4619998931884801</v>
@@ -5986,13 +5986,13 @@
         <v>0.151347130537033</v>
       </c>
       <c r="G146" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H146" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I146" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
